--- a/docs/Avaliação dos resultados - T1.xlsx
+++ b/docs/Avaliação dos resultados - T1.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Número de mensagens trocadas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>step</t>
   </si>
@@ -30,6 +30,30 @@
   <si>
     <t>Rounds necessários para convergência</t>
   </si>
+  <si>
+    <t>AYCoord</t>
+  </si>
+  <si>
+    <t>AY_Answer</t>
+  </si>
+  <si>
+    <t>Invitation</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>Accept_answer</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Ready_answer</t>
+  </si>
+  <si>
+    <t>Total abstrato</t>
+  </si>
 </sst>
 </file>
 
@@ -37,7 +61,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -520,8 +544,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -671,31 +695,31 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>525</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2077</c:v>
+                  <c:v>2139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8253</c:v>
+                  <c:v>8379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32893</c:v>
+                  <c:v>33147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131325</c:v>
+                  <c:v>131835</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>524797</c:v>
+                  <c:v>525819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,11 +736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138138368"/>
-        <c:axId val="138139904"/>
+        <c:axId val="116078464"/>
+        <c:axId val="116080000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138138368"/>
+        <c:axId val="116078464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138139904"/>
+        <c:crossAx val="116080000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -734,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138139904"/>
+        <c:axId val="116080000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138138368"/>
+        <c:crossAx val="116078464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -881,31 +905,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,11 +946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54699520"/>
-        <c:axId val="54701056"/>
+        <c:axId val="116104576"/>
+        <c:axId val="116122752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54699520"/>
+        <c:axId val="116104576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54701056"/>
+        <c:crossAx val="116122752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -944,7 +968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54701056"/>
+        <c:axId val="116122752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54699520"/>
+        <c:crossAx val="116104576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1012,15 +1036,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1329,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,9 +1364,13 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1358,8 +1386,32 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>64</v>
       </c>
@@ -1370,14 +1422,49 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G2" s="2">
+        <f>C2*C2-C2</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <f>C2*C2-C2</f>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f>C2-1</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>C2-1</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>C2-1</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>C2-1</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>C2-1</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <f>SUM(G2:M2)</f>
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <f>2* (POWER(C2,2)) + 3*C2 - 5</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>164</v>
       </c>
@@ -1388,14 +1475,49 @@
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G3" s="2">
+        <f>C3*C3-C3</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <f>C3*C3-C3</f>
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <f>C3-1</f>
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f>C3-1</f>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f>C3-1</f>
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <f>C3-1</f>
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f>C3-1</f>
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <f>SUM(G3:M3)</f>
+        <v>39</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">2* (POWER(C3,2)) + 3*C3 - 5</f>
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>314</v>
       </c>
@@ -1406,14 +1528,49 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E4">
-        <v>63</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G10" si="1">C4*C4-C4</f>
+        <v>56</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H10" si="2">C4*C4-C4</f>
+        <v>56</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="3">C4-1</f>
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J10" si="4">C4-1</f>
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="5">C4-1</f>
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="6">C4-1</f>
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M10" si="7">C4-1</f>
+        <v>7</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N10" si="8">SUM(G4:M4)</f>
+        <v>147</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>464</v>
       </c>
@@ -1424,14 +1581,49 @@
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="E5">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="8"/>
+        <v>555</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>614</v>
       </c>
@@ -1442,14 +1634,49 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>2077</v>
+        <v>2139</v>
       </c>
       <c r="E6">
-        <v>63</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>992</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>992</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="8"/>
+        <v>2139</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>2139</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>714</v>
       </c>
@@ -1460,14 +1687,49 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>8253</v>
+        <v>8379</v>
       </c>
       <c r="E7">
+        <v>66</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>4032</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>4032</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="8"/>
+        <v>8379</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>8379</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>864</v>
       </c>
@@ -1478,14 +1740,49 @@
         <v>128</v>
       </c>
       <c r="D8" s="1">
-        <v>32893</v>
+        <v>33147</v>
       </c>
       <c r="E8">
-        <v>63</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>16256</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>16256</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="8"/>
+        <v>33147</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>33147</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>964</v>
       </c>
@@ -1496,14 +1793,49 @@
         <v>256</v>
       </c>
       <c r="D9" s="1">
-        <v>131325</v>
+        <v>131835</v>
       </c>
       <c r="E9">
-        <v>63</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>65280</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>65280</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="8"/>
+        <v>131835</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>131835</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1214</v>
       </c>
@@ -1514,12 +1846,47 @@
         <v>512</v>
       </c>
       <c r="D10" s="1">
-        <v>524797</v>
+        <v>525819</v>
       </c>
       <c r="E10">
-        <v>63</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>261632</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>261632</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>511</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>511</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>511</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>511</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>511</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="8"/>
+        <v>525819</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>525819</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/docs/Avaliação dos resultados - T1.xlsx
+++ b/docs/Avaliação dos resultados - T1.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Número de mensagens trocadas" sheetId="1" r:id="rId1"/>
+    <sheet name="Instabilidade" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>step</t>
   </si>
@@ -53,6 +57,18 @@
   </si>
   <si>
     <t>Total abstrato</t>
+  </si>
+  <si>
+    <t>qtdNosInstaveis</t>
+  </si>
+  <si>
+    <t>5N - 0.025</t>
+  </si>
+  <si>
+    <t>10N - 0.025</t>
+  </si>
+  <si>
+    <t>5N - 0.08</t>
   </si>
 </sst>
 </file>
@@ -736,11 +752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116078464"/>
-        <c:axId val="116080000"/>
+        <c:axId val="69788032"/>
+        <c:axId val="69789568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116078464"/>
+        <c:axId val="69788032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116080000"/>
+        <c:crossAx val="69789568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116080000"/>
+        <c:axId val="69789568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116078464"/>
+        <c:crossAx val="69788032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -847,7 +863,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -946,11 +961,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116104576"/>
-        <c:axId val="116122752"/>
+        <c:axId val="69810048"/>
+        <c:axId val="69811584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116104576"/>
+        <c:axId val="69810048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,7 +975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116122752"/>
+        <c:crossAx val="69811584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -968,7 +983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116122752"/>
+        <c:axId val="69811584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,13 +994,1984 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116104576"/>
+        <c:crossAx val="69810048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5 nós - erro 0.25</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Instabilidade!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]0_25-05-2015-at-12-24-36-391-AM'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 nós - erro 0.08</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Instabilidade!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Instabilidade!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10 nós - erro 0.025</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Instabilidade!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Instabilidade!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="69593344"/>
+        <c:axId val="69763072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69593344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69763072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69763072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69593344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1064,6 +3050,857 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="0_25-05-2015-at-12-24-36-391-AM"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>100</v>
+          </cell>
+          <cell r="C2">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>200</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>300</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>400</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>500</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>600</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>700</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>800</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>900</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1000</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1100</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1200</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1300</v>
+          </cell>
+          <cell r="C14">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1400</v>
+          </cell>
+          <cell r="C15">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1500</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1600</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>1700</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>1800</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>1900</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2000</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2100</v>
+          </cell>
+          <cell r="C22">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2200</v>
+          </cell>
+          <cell r="C23">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2300</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>2400</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>2500</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>2600</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>2700</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>2800</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>2900</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>3000</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>3100</v>
+          </cell>
+          <cell r="C32">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>3200</v>
+          </cell>
+          <cell r="C33">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>3300</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>3400</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>3500</v>
+          </cell>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>3600</v>
+          </cell>
+          <cell r="C37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>3700</v>
+          </cell>
+          <cell r="C38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>3800</v>
+          </cell>
+          <cell r="C39">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>3900</v>
+          </cell>
+          <cell r="C40">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>4000</v>
+          </cell>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>4100</v>
+          </cell>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>4200</v>
+          </cell>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>4300</v>
+          </cell>
+          <cell r="C44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>4400</v>
+          </cell>
+          <cell r="C45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>4500</v>
+          </cell>
+          <cell r="C46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>4600</v>
+          </cell>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>4700</v>
+          </cell>
+          <cell r="C48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>4800</v>
+          </cell>
+          <cell r="C49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>4900</v>
+          </cell>
+          <cell r="C50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>5000</v>
+          </cell>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>5100</v>
+          </cell>
+          <cell r="C52">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>5200</v>
+          </cell>
+          <cell r="C53">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>5300</v>
+          </cell>
+          <cell r="C54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>5400</v>
+          </cell>
+          <cell r="C55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>5500</v>
+          </cell>
+          <cell r="C56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>5600</v>
+          </cell>
+          <cell r="C57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>5700</v>
+          </cell>
+          <cell r="C58">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>5800</v>
+          </cell>
+          <cell r="C59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>5900</v>
+          </cell>
+          <cell r="C60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>6000</v>
+          </cell>
+          <cell r="C61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>6100</v>
+          </cell>
+          <cell r="C62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>6200</v>
+          </cell>
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>6300</v>
+          </cell>
+          <cell r="C64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>6400</v>
+          </cell>
+          <cell r="C65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>6500</v>
+          </cell>
+          <cell r="C66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>6600</v>
+          </cell>
+          <cell r="C67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>6700</v>
+          </cell>
+          <cell r="C68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>6800</v>
+          </cell>
+          <cell r="C69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>6900</v>
+          </cell>
+          <cell r="C70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>7000</v>
+          </cell>
+          <cell r="C71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>7100</v>
+          </cell>
+          <cell r="C72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>7200</v>
+          </cell>
+          <cell r="C73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>7300</v>
+          </cell>
+          <cell r="C74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>7400</v>
+          </cell>
+          <cell r="C75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>7500</v>
+          </cell>
+          <cell r="C76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>7600</v>
+          </cell>
+          <cell r="C77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>7700</v>
+          </cell>
+          <cell r="C78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>7800</v>
+          </cell>
+          <cell r="C79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>7900</v>
+          </cell>
+          <cell r="C80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>8000</v>
+          </cell>
+          <cell r="C81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>8100</v>
+          </cell>
+          <cell r="C82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>8200</v>
+          </cell>
+          <cell r="C83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>8300</v>
+          </cell>
+          <cell r="C84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>8400</v>
+          </cell>
+          <cell r="C85">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>8500</v>
+          </cell>
+          <cell r="C86">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>8600</v>
+          </cell>
+          <cell r="C87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>8700</v>
+          </cell>
+          <cell r="C88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>8800</v>
+          </cell>
+          <cell r="C89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>8900</v>
+          </cell>
+          <cell r="C90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>9000</v>
+          </cell>
+          <cell r="C91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>9100</v>
+          </cell>
+          <cell r="C92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>9200</v>
+          </cell>
+          <cell r="C93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>9300</v>
+          </cell>
+          <cell r="C94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>9400</v>
+          </cell>
+          <cell r="C95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>9500</v>
+          </cell>
+          <cell r="C96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>9600</v>
+          </cell>
+          <cell r="C97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>9700</v>
+          </cell>
+          <cell r="C98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>9800</v>
+          </cell>
+          <cell r="C99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>9900</v>
+          </cell>
+          <cell r="C100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>10000</v>
+          </cell>
+          <cell r="C101">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1355,7 +4192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -1892,4 +4729,1745 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>107</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3100</v>
+      </c>
+      <c r="B32">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>91</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3200</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3300</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3400</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3500</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3600</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3700</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3800</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3900</v>
+      </c>
+      <c r="B40">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4100</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4200</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4300</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4400</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4500</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4600</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4700</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4800</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4900</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5000</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>35</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5100</v>
+      </c>
+      <c r="B52">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>69</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5200</v>
+      </c>
+      <c r="B53">
+        <v>88</v>
+      </c>
+      <c r="C53">
+        <v>70</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5300</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5400</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5500</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5600</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5700</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5800</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5900</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6000</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6100</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6200</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6300</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6400</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6500</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6600</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6700</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6800</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6900</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>7000</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7100</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7200</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7300</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7400</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7500</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7600</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7700</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7800</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7900</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>8000</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>8100</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>8200</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8300</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8400</v>
+      </c>
+      <c r="B85">
+        <v>107</v>
+      </c>
+      <c r="C85">
+        <v>75</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8500</v>
+      </c>
+      <c r="B86">
+        <v>28</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8600</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>75</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>8700</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8800</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8900</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>9000</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>9100</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9200</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>9300</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>9400</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>9500</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>9600</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>9700</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>9800</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>9900</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>75</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10000</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/docs/Avaliação dos resultados - T1.xlsx
+++ b/docs/Avaliação dos resultados - T1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="735" yWindow="390" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Número de mensagens trocadas" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>step</t>
   </si>
@@ -59,16 +59,67 @@
     <t>Total abstrato</t>
   </si>
   <si>
-    <t>qtdNosInstaveis</t>
+    <t>Step</t>
   </si>
   <si>
-    <t>5N - 0.025</t>
+    <t>10n - 025 - 3part</t>
   </si>
   <si>
-    <t>10N - 0.025</t>
+    <t>10n - 025 - 2part</t>
   </si>
   <si>
-    <t>5N - 0.08</t>
+    <t>10n - 08 - 3part</t>
+  </si>
+  <si>
+    <t>10n - 08 - 2part</t>
+  </si>
+  <si>
+    <t>10n - 05 - 3part</t>
+  </si>
+  <si>
+    <t>10n - 05 - 2part</t>
+  </si>
+  <si>
+    <t>5n - 025 - 3part</t>
+  </si>
+  <si>
+    <t>5n - 025 - 2part</t>
+  </si>
+  <si>
+    <t>5n - 08 - 3part</t>
+  </si>
+  <si>
+    <t>5n - 08 - 2part</t>
+  </si>
+  <si>
+    <t>5n - 05 - 3part</t>
+  </si>
+  <si>
+    <t>5n - 05 - 2part</t>
+  </si>
+  <si>
+    <t>2 Partições</t>
+  </si>
+  <si>
+    <t>3 Partições</t>
+  </si>
+  <si>
+    <t>Erro 0.025 - 10 nós</t>
+  </si>
+  <si>
+    <t>Erro 0.025  -  5 nós</t>
+  </si>
+  <si>
+    <t>Erro 0.05   -   5 nós</t>
+  </si>
+  <si>
+    <t>Erro 0.05  - 10 nós</t>
+  </si>
+  <si>
+    <t>Erro 0.08  - 10 nós</t>
+  </si>
+  <si>
+    <t>Erro 0.08  -   5 nós</t>
   </si>
 </sst>
 </file>
@@ -653,7 +704,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -752,11 +802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69788032"/>
-        <c:axId val="69789568"/>
+        <c:axId val="183967744"/>
+        <c:axId val="183969280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69788032"/>
+        <c:axId val="183967744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69789568"/>
+        <c:crossAx val="183969280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -774,7 +824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69789568"/>
+        <c:axId val="183969280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,14 +835,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69788032"/>
+        <c:crossAx val="183967744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -961,11 +1010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69810048"/>
-        <c:axId val="69811584"/>
+        <c:axId val="183985664"/>
+        <c:axId val="183987200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69810048"/>
+        <c:axId val="183985664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +1024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69811584"/>
+        <c:crossAx val="183987200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -983,7 +1032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69811584"/>
+        <c:axId val="183987200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +1043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69810048"/>
+        <c:crossAx val="183985664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1029,1898 +1078,150 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>5 nós - erro 0.25</c:v>
+            <c:strRef>
+              <c:f>Instabilidade!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Partições</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Instabilidade!$A$2:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+            <c:strRef>
+              <c:f>Instabilidade!$P$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>Erro 0.025 - 10 nós</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>Erro 0.025  -  5 nós</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>Erro 0.05   -   5 nós</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>Erro 0.05  - 10 nós</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>Erro 0.08  - 10 nós</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>Erro 0.08  -   5 nós</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9200</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9300</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9400</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9700</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9800</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9900</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]0_25-05-2015-at-12-24-36-391-AM'!$C$2:$C$101</c:f>
+              <c:f>Instabilidade!$P$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>5 nós - erro 0.08</c:v>
+            <c:strRef>
+              <c:f>Instabilidade!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Partições</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Instabilidade!$A$2:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+            <c:strRef>
+              <c:f>Instabilidade!$P$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>Erro 0.025 - 10 nós</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>Erro 0.025  -  5 nós</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>Erro 0.05   -   5 nós</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>Erro 0.05  - 10 nós</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>Erro 0.08  - 10 nós</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>Erro 0.08  -   5 nós</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9200</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9300</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9400</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9700</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9800</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9900</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Instabilidade!$E$2:$E$101</c:f>
+              <c:f>Instabilidade!$P$3:$U$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4</c:v>
+                  <c:v>741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>10 nós - erro 0.025</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Instabilidade!$A$2:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9200</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9300</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9400</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9700</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9800</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9900</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Instabilidade!$D$2:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2930,23 +1231,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="69593344"/>
-        <c:axId val="69763072"/>
-      </c:lineChart>
+        <c:gapWidth val="300"/>
+        <c:axId val="123343616"/>
+        <c:axId val="123383808"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="69593344"/>
+        <c:axId val="123343616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69763072"/>
+        <c:crossAx val="123383808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2954,18 +1253,44 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69763072"/>
+        <c:axId val="123383808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de passos que possuíam nós com STATUS diferente de NORMAL - (em</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> 10.000 passos executados)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69593344"/>
+        <c:crossAx val="123343616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3056,23 +1381,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3106,793 +1429,496 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3">
-            <v>200</v>
-          </cell>
           <cell r="C3">
             <v>0</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="A4">
-            <v>300</v>
-          </cell>
           <cell r="C4">
             <v>0</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="A5">
-            <v>400</v>
-          </cell>
           <cell r="C5">
             <v>0</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6">
-            <v>500</v>
-          </cell>
           <cell r="C6">
             <v>0</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7">
-            <v>600</v>
-          </cell>
           <cell r="C7">
             <v>0</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8">
-            <v>700</v>
-          </cell>
           <cell r="C8">
             <v>0</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9">
-            <v>800</v>
-          </cell>
           <cell r="C9">
             <v>0</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10">
-            <v>900</v>
-          </cell>
           <cell r="C10">
             <v>0</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11">
-            <v>1000</v>
-          </cell>
           <cell r="C11">
             <v>0</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="A12">
-            <v>1100</v>
-          </cell>
           <cell r="C12">
             <v>0</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="A13">
-            <v>1200</v>
-          </cell>
           <cell r="C13">
             <v>0</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="A14">
-            <v>1300</v>
-          </cell>
           <cell r="C14">
             <v>35</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="A15">
-            <v>1400</v>
-          </cell>
           <cell r="C15">
             <v>20</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="A16">
-            <v>1500</v>
-          </cell>
           <cell r="C16">
             <v>0</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="A17">
-            <v>1600</v>
-          </cell>
           <cell r="C17">
             <v>0</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="A18">
-            <v>1700</v>
-          </cell>
           <cell r="C18">
             <v>0</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="A19">
-            <v>1800</v>
-          </cell>
           <cell r="C19">
             <v>0</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="A20">
-            <v>1900</v>
-          </cell>
           <cell r="C20">
             <v>0</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="A21">
-            <v>2000</v>
-          </cell>
           <cell r="C21">
             <v>0</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="A22">
-            <v>2100</v>
-          </cell>
           <cell r="C22">
             <v>75</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="A23">
-            <v>2200</v>
-          </cell>
           <cell r="C23">
             <v>20</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="A24">
-            <v>2300</v>
-          </cell>
           <cell r="C24">
             <v>0</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="A25">
-            <v>2400</v>
-          </cell>
           <cell r="C25">
             <v>0</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="A26">
-            <v>2500</v>
-          </cell>
           <cell r="C26">
             <v>0</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27">
-            <v>2600</v>
-          </cell>
           <cell r="C27">
             <v>0</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="A28">
-            <v>2700</v>
-          </cell>
           <cell r="C28">
             <v>0</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="A29">
-            <v>2800</v>
-          </cell>
           <cell r="C29">
             <v>0</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="A30">
-            <v>2900</v>
-          </cell>
           <cell r="C30">
             <v>0</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="A31">
-            <v>3000</v>
-          </cell>
           <cell r="C31">
             <v>0</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="A32">
-            <v>3100</v>
-          </cell>
           <cell r="C32">
             <v>75</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="A33">
-            <v>3200</v>
-          </cell>
           <cell r="C33">
             <v>20</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="A34">
-            <v>3300</v>
-          </cell>
           <cell r="C34">
             <v>0</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="A35">
-            <v>3400</v>
-          </cell>
           <cell r="C35">
             <v>0</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="A36">
-            <v>3500</v>
-          </cell>
           <cell r="C36">
             <v>0</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="A37">
-            <v>3600</v>
-          </cell>
           <cell r="C37">
             <v>0</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="A38">
-            <v>3700</v>
-          </cell>
           <cell r="C38">
             <v>0</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="A39">
-            <v>3800</v>
-          </cell>
           <cell r="C39">
             <v>25</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="A40">
-            <v>3900</v>
-          </cell>
           <cell r="C40">
             <v>70</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="A41">
-            <v>4000</v>
-          </cell>
           <cell r="C41">
             <v>0</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="A42">
-            <v>4100</v>
-          </cell>
           <cell r="C42">
             <v>0</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="A43">
-            <v>4200</v>
-          </cell>
           <cell r="C43">
             <v>0</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="A44">
-            <v>4300</v>
-          </cell>
           <cell r="C44">
             <v>0</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="A45">
-            <v>4400</v>
-          </cell>
           <cell r="C45">
             <v>0</v>
           </cell>
         </row>
         <row r="46">
-          <cell r="A46">
-            <v>4500</v>
-          </cell>
           <cell r="C46">
             <v>0</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="A47">
-            <v>4600</v>
-          </cell>
           <cell r="C47">
             <v>0</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="A48">
-            <v>4700</v>
-          </cell>
           <cell r="C48">
             <v>0</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="A49">
-            <v>4800</v>
-          </cell>
           <cell r="C49">
             <v>0</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="A50">
-            <v>4900</v>
-          </cell>
           <cell r="C50">
             <v>0</v>
           </cell>
         </row>
         <row r="51">
-          <cell r="A51">
-            <v>5000</v>
-          </cell>
           <cell r="C51">
             <v>0</v>
           </cell>
         </row>
         <row r="52">
-          <cell r="A52">
-            <v>5100</v>
-          </cell>
           <cell r="C52">
             <v>25</v>
           </cell>
         </row>
         <row r="53">
-          <cell r="A53">
-            <v>5200</v>
-          </cell>
           <cell r="C53">
             <v>70</v>
           </cell>
         </row>
         <row r="54">
-          <cell r="A54">
-            <v>5300</v>
-          </cell>
           <cell r="C54">
             <v>0</v>
           </cell>
         </row>
         <row r="55">
-          <cell r="A55">
-            <v>5400</v>
-          </cell>
           <cell r="C55">
             <v>0</v>
           </cell>
         </row>
         <row r="56">
-          <cell r="A56">
-            <v>5500</v>
-          </cell>
           <cell r="C56">
             <v>0</v>
           </cell>
         </row>
         <row r="57">
-          <cell r="A57">
-            <v>5600</v>
-          </cell>
           <cell r="C57">
             <v>0</v>
           </cell>
         </row>
         <row r="58">
-          <cell r="A58">
-            <v>5700</v>
-          </cell>
           <cell r="C58">
             <v>4</v>
           </cell>
         </row>
         <row r="59">
-          <cell r="A59">
-            <v>5800</v>
-          </cell>
           <cell r="C59">
             <v>0</v>
           </cell>
         </row>
         <row r="60">
-          <cell r="A60">
-            <v>5900</v>
-          </cell>
           <cell r="C60">
             <v>0</v>
           </cell>
         </row>
         <row r="61">
-          <cell r="A61">
-            <v>6000</v>
-          </cell>
           <cell r="C61">
             <v>0</v>
           </cell>
         </row>
         <row r="62">
-          <cell r="A62">
-            <v>6100</v>
-          </cell>
           <cell r="C62">
             <v>0</v>
           </cell>
         </row>
         <row r="63">
-          <cell r="A63">
-            <v>6200</v>
-          </cell>
           <cell r="C63">
             <v>0</v>
           </cell>
         </row>
         <row r="64">
-          <cell r="A64">
-            <v>6300</v>
-          </cell>
           <cell r="C64">
             <v>0</v>
           </cell>
         </row>
         <row r="65">
-          <cell r="A65">
-            <v>6400</v>
-          </cell>
           <cell r="C65">
             <v>0</v>
           </cell>
         </row>
         <row r="66">
-          <cell r="A66">
-            <v>6500</v>
-          </cell>
           <cell r="C66">
             <v>0</v>
           </cell>
         </row>
         <row r="67">
-          <cell r="A67">
-            <v>6600</v>
-          </cell>
           <cell r="C67">
             <v>0</v>
           </cell>
         </row>
         <row r="68">
-          <cell r="A68">
-            <v>6700</v>
-          </cell>
           <cell r="C68">
             <v>0</v>
           </cell>
         </row>
         <row r="69">
-          <cell r="A69">
-            <v>6800</v>
-          </cell>
           <cell r="C69">
             <v>0</v>
           </cell>
         </row>
         <row r="70">
-          <cell r="A70">
-            <v>6900</v>
-          </cell>
           <cell r="C70">
             <v>0</v>
           </cell>
         </row>
         <row r="71">
-          <cell r="A71">
-            <v>7000</v>
-          </cell>
           <cell r="C71">
             <v>0</v>
           </cell>
         </row>
         <row r="72">
-          <cell r="A72">
-            <v>7100</v>
-          </cell>
           <cell r="C72">
             <v>0</v>
           </cell>
         </row>
         <row r="73">
-          <cell r="A73">
-            <v>7200</v>
-          </cell>
           <cell r="C73">
             <v>0</v>
           </cell>
         </row>
         <row r="74">
-          <cell r="A74">
-            <v>7300</v>
-          </cell>
           <cell r="C74">
             <v>0</v>
           </cell>
         </row>
         <row r="75">
-          <cell r="A75">
-            <v>7400</v>
-          </cell>
           <cell r="C75">
             <v>0</v>
           </cell>
         </row>
         <row r="76">
-          <cell r="A76">
-            <v>7500</v>
-          </cell>
           <cell r="C76">
             <v>0</v>
           </cell>
         </row>
         <row r="77">
-          <cell r="A77">
-            <v>7600</v>
-          </cell>
           <cell r="C77">
             <v>0</v>
           </cell>
         </row>
         <row r="78">
-          <cell r="A78">
-            <v>7700</v>
-          </cell>
           <cell r="C78">
             <v>0</v>
           </cell>
         </row>
         <row r="79">
-          <cell r="A79">
-            <v>7800</v>
-          </cell>
           <cell r="C79">
             <v>0</v>
           </cell>
         </row>
         <row r="80">
-          <cell r="A80">
-            <v>7900</v>
-          </cell>
           <cell r="C80">
             <v>0</v>
           </cell>
         </row>
         <row r="81">
-          <cell r="A81">
-            <v>8000</v>
-          </cell>
           <cell r="C81">
             <v>0</v>
           </cell>
         </row>
         <row r="82">
-          <cell r="A82">
-            <v>8100</v>
-          </cell>
           <cell r="C82">
             <v>0</v>
           </cell>
         </row>
         <row r="83">
-          <cell r="A83">
-            <v>8200</v>
-          </cell>
           <cell r="C83">
             <v>0</v>
           </cell>
         </row>
         <row r="84">
-          <cell r="A84">
-            <v>8300</v>
-          </cell>
           <cell r="C84">
             <v>0</v>
           </cell>
         </row>
         <row r="85">
-          <cell r="A85">
-            <v>8400</v>
-          </cell>
           <cell r="C85">
             <v>75</v>
           </cell>
         </row>
         <row r="86">
-          <cell r="A86">
-            <v>8500</v>
-          </cell>
           <cell r="C86">
             <v>20</v>
           </cell>
         </row>
         <row r="87">
-          <cell r="A87">
-            <v>8600</v>
-          </cell>
           <cell r="C87">
             <v>0</v>
           </cell>
         </row>
         <row r="88">
-          <cell r="A88">
-            <v>8700</v>
-          </cell>
           <cell r="C88">
             <v>0</v>
           </cell>
         </row>
         <row r="89">
-          <cell r="A89">
-            <v>8800</v>
-          </cell>
           <cell r="C89">
             <v>0</v>
           </cell>
         </row>
         <row r="90">
-          <cell r="A90">
-            <v>8900</v>
-          </cell>
           <cell r="C90">
             <v>0</v>
           </cell>
         </row>
         <row r="91">
-          <cell r="A91">
-            <v>9000</v>
-          </cell>
           <cell r="C91">
             <v>0</v>
           </cell>
         </row>
         <row r="92">
-          <cell r="A92">
-            <v>9100</v>
-          </cell>
           <cell r="C92">
             <v>0</v>
           </cell>
         </row>
         <row r="93">
-          <cell r="A93">
-            <v>9200</v>
-          </cell>
           <cell r="C93">
             <v>0</v>
           </cell>
         </row>
         <row r="94">
-          <cell r="A94">
-            <v>9300</v>
-          </cell>
           <cell r="C94">
             <v>0</v>
           </cell>
         </row>
         <row r="95">
-          <cell r="A95">
-            <v>9400</v>
-          </cell>
           <cell r="C95">
             <v>0</v>
           </cell>
         </row>
         <row r="96">
-          <cell r="A96">
-            <v>9500</v>
-          </cell>
           <cell r="C96">
             <v>0</v>
           </cell>
         </row>
         <row r="97">
-          <cell r="A97">
-            <v>9600</v>
-          </cell>
           <cell r="C97">
             <v>0</v>
           </cell>
         </row>
         <row r="98">
-          <cell r="A98">
-            <v>9700</v>
-          </cell>
           <cell r="C98">
             <v>0</v>
           </cell>
         </row>
         <row r="99">
-          <cell r="A99">
-            <v>9800</v>
-          </cell>
           <cell r="C99">
             <v>0</v>
           </cell>
         </row>
         <row r="100">
-          <cell r="A100">
-            <v>9900</v>
-          </cell>
           <cell r="C100">
             <v>0</v>
           </cell>
         </row>
         <row r="101">
-          <cell r="A101">
-            <v>10000</v>
-          </cell>
           <cell r="C101">
             <v>0</v>
           </cell>
@@ -4733,56 +2759,163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2">
+        <f>SUM(C2:C101)</f>
+        <v>741</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(I2:I101)</f>
+        <v>674</v>
+      </c>
+      <c r="R2">
+        <f>SUM(M2:M101)</f>
+        <v>599</v>
+      </c>
+      <c r="S2">
+        <f>SUM(G2:G101)</f>
+        <v>896</v>
+      </c>
+      <c r="T2">
+        <f>SUM(E2:E101)</f>
+        <v>816</v>
+      </c>
+      <c r="U2">
+        <f>SUM(K2:K101)</f>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4796,10 +2929,61 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <f>SUM(B2:B101)</f>
+        <v>544</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(H2:H101)</f>
+        <v>650</v>
+      </c>
+      <c r="R3">
+        <f>SUM(L2:L101)</f>
+        <v>555</v>
+      </c>
+      <c r="S3">
+        <f>SUM(F2:F101)</f>
+        <v>832</v>
+      </c>
+      <c r="T3">
+        <f>SUM(D2:D101)</f>
+        <v>768</v>
+      </c>
+      <c r="U3">
+        <f>SUM(J2:J101)</f>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -4810,13 +2994,37 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -4827,13 +3035,37 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -4849,8 +3081,32 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>600</v>
       </c>
@@ -4866,8 +3122,32 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>700</v>
       </c>
@@ -4878,13 +3158,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
@@ -4892,16 +3196,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>35</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -4912,13 +3240,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>55</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -4934,8 +3286,32 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -4951,8 +3327,32 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -4960,50 +3360,122 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>55</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1300</v>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1400</v>
       </c>
       <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>28</v>
       </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -5011,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5019,8 +3491,32 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -5036,8 +3532,32 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>70</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -5051,10 +3571,34 @@
         <v>0</v>
       </c>
       <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -5065,13 +3609,37 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -5079,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5087,8 +3655,32 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -5096,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5104,42 +3696,114 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2100</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2200</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>74</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -5150,13 +3814,37 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -5164,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5172,8 +3860,32 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>75</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -5184,13 +3896,37 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>69</v>
+      </c>
+      <c r="M26">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -5201,13 +3937,37 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -5218,13 +3978,37 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>70</v>
+      </c>
+      <c r="I28">
+        <v>70</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>75</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -5232,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5240,8 +4024,32 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>75</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -5249,16 +4057,40 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -5266,50 +4098,122 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
         <v>25</v>
       </c>
-      <c r="E31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3100</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3200</v>
       </c>
       <c r="B33">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>73</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -5320,13 +4224,37 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -5334,16 +4262,40 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -5359,8 +4311,32 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -5374,10 +4350,34 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -5388,47 +4388,119 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3800</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3900</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C40">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -5442,10 +4514,34 @@
         <v>0</v>
       </c>
       <c r="E41">
+        <v>75</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -5459,10 +4555,34 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>75</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -5478,8 +4598,32 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -5495,8 +4639,32 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -5512,8 +4680,32 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>75</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -5529,8 +4721,32 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -5541,13 +4757,37 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -5558,13 +4798,37 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -5578,10 +4842,34 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <v>74</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -5595,10 +4883,34 @@
         <v>0</v>
       </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>70</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -5609,47 +4921,119 @@
         <v>0</v>
       </c>
       <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>35</v>
       </c>
-      <c r="E51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5100</v>
       </c>
       <c r="B52">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5200</v>
       </c>
       <c r="B53">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C53">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>75</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5300</v>
       </c>
@@ -5660,13 +5044,37 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>24</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5400</v>
       </c>
@@ -5674,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5682,8 +5090,32 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5500</v>
       </c>
@@ -5699,8 +5131,32 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>75</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5600</v>
       </c>
@@ -5711,30 +5167,78 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>24</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5700</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>25</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5800</v>
       </c>
@@ -5742,16 +5246,40 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>25</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>70</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -5759,16 +5287,40 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>70</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6000</v>
       </c>
@@ -5782,10 +5334,34 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -5801,8 +5377,32 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>75</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6200</v>
       </c>
@@ -5818,8 +5418,32 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>91</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6300</v>
       </c>
@@ -5830,13 +5454,37 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>25</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>24</v>
+      </c>
+      <c r="L64">
+        <v>25</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6400</v>
       </c>
@@ -5850,10 +5498,34 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>75</v>
+      </c>
+      <c r="H65">
+        <v>53</v>
+      </c>
+      <c r="I65">
+        <v>71</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>70</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6500</v>
       </c>
@@ -5867,10 +5539,34 @@
         <v>0</v>
       </c>
       <c r="E66">
+        <v>73</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>20</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6600</v>
       </c>
@@ -5884,10 +5580,34 @@
         <v>0</v>
       </c>
       <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6700</v>
       </c>
@@ -5895,16 +5615,40 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6800</v>
       </c>
@@ -5920,8 +5664,32 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>25</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6900</v>
       </c>
@@ -5937,8 +5705,32 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>70</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7000</v>
       </c>
@@ -5954,8 +5746,32 @@
       <c r="E71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7100</v>
       </c>
@@ -5963,16 +5779,40 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7200</v>
       </c>
@@ -5980,16 +5820,40 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>75</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7300</v>
       </c>
@@ -5997,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -6005,8 +5869,32 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>24</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7400</v>
       </c>
@@ -6022,8 +5910,32 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>25</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7500</v>
       </c>
@@ -6039,8 +5951,32 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>25</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>74</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7600</v>
       </c>
@@ -6054,10 +5990,34 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>70</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7700</v>
       </c>
@@ -6065,16 +6025,40 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7800</v>
       </c>
@@ -6085,13 +6069,37 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7900</v>
       </c>
@@ -6102,13 +6110,37 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8000</v>
       </c>
@@ -6124,8 +6156,32 @@
       <c r="E81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8100</v>
       </c>
@@ -6141,8 +6197,32 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8200</v>
       </c>
@@ -6153,13 +6233,37 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>75</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8300</v>
       </c>
@@ -6167,24 +6271,48 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>24</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8400</v>
       </c>
       <c r="B85">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C85">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -6192,16 +6320,40 @@
       <c r="E85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>25</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8500</v>
       </c>
       <c r="B86">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -6209,8 +6361,32 @@
       <c r="E86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>71</v>
+      </c>
+      <c r="H86">
+        <v>55</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8600</v>
       </c>
@@ -6221,13 +6397,37 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8700</v>
       </c>
@@ -6235,16 +6435,40 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>75</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8800</v>
       </c>
@@ -6252,16 +6476,40 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>20</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8900</v>
       </c>
@@ -6269,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -6277,8 +6525,32 @@
       <c r="E90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9000</v>
       </c>
@@ -6286,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -6294,8 +6566,32 @@
       <c r="E91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9100</v>
       </c>
@@ -6309,10 +6605,34 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9200</v>
       </c>
@@ -6326,10 +6646,34 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9300</v>
       </c>
@@ -6345,8 +6689,32 @@
       <c r="E94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>75</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9400</v>
       </c>
@@ -6354,16 +6722,40 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
         <v>75</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>20</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9500</v>
       </c>
@@ -6374,13 +6766,37 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>75</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
         <v>91</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>25</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9600</v>
       </c>
@@ -6394,10 +6810,34 @@
         <v>0</v>
       </c>
       <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>20</v>
+      </c>
+      <c r="K97">
+        <v>71</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9700</v>
       </c>
@@ -6408,13 +6848,37 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>75</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9800</v>
       </c>
@@ -6430,8 +6894,32 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>75</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9900</v>
       </c>
@@ -6442,13 +6930,37 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>25</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>20</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10000</v>
       </c>
@@ -6459,10 +6971,34 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>70</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Avaliação dos resultados - T1.xlsx
+++ b/docs/Avaliação dos resultados - T1.xlsx
@@ -4,21 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="390" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="735" yWindow="390" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Número de mensagens trocadas" sheetId="1" r:id="rId1"/>
     <sheet name="Instabilidade" sheetId="2" r:id="rId2"/>
+    <sheet name="Porcentagem de nós instáveis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>step</t>
   </si>
@@ -120,6 +118,15 @@
   </si>
   <si>
     <t>Erro 0.08  -   5 nós</t>
+  </si>
+  <si>
+    <t>3 partes</t>
+  </si>
+  <si>
+    <t>2 partes</t>
+  </si>
+  <si>
+    <t>Passo</t>
   </si>
 </sst>
 </file>
@@ -802,11 +809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183967744"/>
-        <c:axId val="183969280"/>
+        <c:axId val="132548480"/>
+        <c:axId val="132550016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183967744"/>
+        <c:axId val="132548480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183969280"/>
+        <c:crossAx val="132550016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -824,7 +831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183969280"/>
+        <c:axId val="132550016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183967744"/>
+        <c:crossAx val="132548480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1010,11 +1017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183985664"/>
-        <c:axId val="183987200"/>
+        <c:axId val="132562304"/>
+        <c:axId val="132572288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183985664"/>
+        <c:axId val="132562304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183987200"/>
+        <c:crossAx val="132572288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183987200"/>
+        <c:axId val="132572288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183985664"/>
+        <c:crossAx val="132562304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1090,7 +1097,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Instabilidade!$O$2</c:f>
+              <c:f>Instabilidade!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1102,7 +1109,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Instabilidade!$P$1:$U$1</c:f>
+              <c:f>Instabilidade!$Q$1:$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1112,10 +1119,10 @@
                   <c:v>Erro 0.025  -  5 nós</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Erro 0.05   -   5 nós</c:v>
+                  <c:v>Erro 0.05  - 10 nós</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Erro 0.05  - 10 nós</c:v>
+                  <c:v>Erro 0.05   -   5 nós</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Erro 0.08  - 10 nós</c:v>
@@ -1128,7 +1135,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Instabilidade!$P$2:$U$2</c:f>
+              <c:f>Instabilidade!$Q$2:$V$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1139,10 +1146,10 @@
                   <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>599</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>896</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>816</c:v>
@@ -1159,7 +1166,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Instabilidade!$O$3</c:f>
+              <c:f>Instabilidade!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1171,7 +1178,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Instabilidade!$P$1:$U$1</c:f>
+              <c:f>Instabilidade!$Q$1:$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1181,10 +1188,10 @@
                   <c:v>Erro 0.025  -  5 nós</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Erro 0.05   -   5 nós</c:v>
+                  <c:v>Erro 0.05  - 10 nós</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Erro 0.05  - 10 nós</c:v>
+                  <c:v>Erro 0.05   -   5 nós</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Erro 0.08  - 10 nós</c:v>
@@ -1197,7 +1204,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Instabilidade!$P$3:$U$3</c:f>
+              <c:f>Instabilidade!$Q$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1208,10 +1215,10 @@
                   <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>555</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>832</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>768</c:v>
@@ -1232,11 +1239,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="123343616"/>
-        <c:axId val="123383808"/>
+        <c:axId val="133224704"/>
+        <c:axId val="133230592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123343616"/>
+        <c:axId val="133224704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1252,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123383808"/>
+        <c:crossAx val="133230592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1253,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123383808"/>
+        <c:axId val="133230592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -1290,7 +1297,254 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123343616"/>
+        <c:crossAx val="133224704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Porcentagem de nós instáveis'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 partes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Porcentagem de nós instáveis'!$P$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Erro 0.025 - 10 nós</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro 0.025  -  5 nós</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Erro 0.05  - 10 nós</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Erro 0.05   -   5 nós</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Erro 0.08  - 10 nós</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Erro 0.08  -   5 nós</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Porcentagem de nós instáveis'!$P$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Porcentagem de nós instáveis'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 partes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Porcentagem de nós instáveis'!$P$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Erro 0.025 - 10 nós</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro 0.025  -  5 nós</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Erro 0.05  - 10 nós</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Erro 0.05   -   5 nós</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Erro 0.08  - 10 nós</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Erro 0.08  -   5 nós</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Porcentagem de nós instáveis'!$P$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="56587392"/>
+        <c:axId val="56588928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56587392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56588928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56588928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de STATUS diferente de "NORMAL"</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56587392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1381,13 +1635,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
@@ -1412,521 +1666,39 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0_25-05-2015-at-12-24-36-391-AM"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>100</v>
-          </cell>
-          <cell r="C2">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2759,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView topLeftCell="M6" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,12 +2555,14 @@
     <col min="16" max="16" width="19.85546875" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2828,26 +2602,26 @@
       <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
       </c>
       <c r="S1" t="s">
         <v>31</v>
       </c>
       <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2887,35 +2661,35 @@
       <c r="M2">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f>SUM(C2:C101)</f>
         <v>741</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <f>SUM(I2:I101)</f>
         <v>674</v>
-      </c>
-      <c r="R2">
-        <f>SUM(M2:M101)</f>
-        <v>599</v>
       </c>
       <c r="S2">
         <f>SUM(G2:G101)</f>
         <v>896</v>
       </c>
       <c r="T2">
+        <f>SUM(M2:M101)</f>
+        <v>599</v>
+      </c>
+      <c r="U2">
         <f>SUM(E2:E101)</f>
         <v>816</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <f>SUM(K2:K101)</f>
         <v>975</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -2955,35 +2729,35 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f>SUM(B2:B101)</f>
         <v>544</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <f>SUM(H2:H101)</f>
         <v>650</v>
-      </c>
-      <c r="R3">
-        <f>SUM(L2:L101)</f>
-        <v>555</v>
       </c>
       <c r="S3">
         <f>SUM(F2:F101)</f>
         <v>832</v>
       </c>
       <c r="T3">
+        <f>SUM(L2:L101)</f>
+        <v>555</v>
+      </c>
+      <c r="U3">
         <f>SUM(D2:D101)</f>
         <v>768</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <f>SUM(J2:J101)</f>
         <v>741</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -3024,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -3065,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -3106,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>600</v>
       </c>
@@ -3147,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>700</v>
       </c>
@@ -3188,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
@@ -3229,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -3270,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -3311,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -3352,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -3393,7 +3167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -3434,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -3475,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -7006,4 +6780,4250 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>213</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2">
+        <f>SUM(H2:H101)</f>
+        <v>1831</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(L2:L101)</f>
+        <v>1087</v>
+      </c>
+      <c r="R2">
+        <f>SUM(J2:J101)</f>
+        <v>2665</v>
+      </c>
+      <c r="S2">
+        <f>SUM(K2:K101)</f>
+        <v>1297</v>
+      </c>
+      <c r="T2">
+        <f>SUM(I2:I101)</f>
+        <v>1778</v>
+      </c>
+      <c r="U2">
+        <f>SUM(M2:M101)</f>
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>103</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3">
+        <f>SUM(B2:B101)</f>
+        <v>764</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(E2:E101)</f>
+        <v>1004</v>
+      </c>
+      <c r="R3">
+        <f>SUM(D2:D101)</f>
+        <v>1811</v>
+      </c>
+      <c r="S3">
+        <f>SUM(G2:G101)</f>
+        <v>945</v>
+      </c>
+      <c r="T3">
+        <f>SUM(C2:C101)</f>
+        <v>1585</v>
+      </c>
+      <c r="U3">
+        <f>SUM(F2:F101)</f>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>71</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>167</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>353</v>
+      </c>
+      <c r="K18">
+        <v>75</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>137</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>137</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>38</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>37</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>107</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>90</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>98</v>
+      </c>
+      <c r="M22">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>107</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>79</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>77</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>148</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>98</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>22</v>
+      </c>
+      <c r="J28">
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>137</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>137</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>332</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>118</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>37</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>159</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3100</v>
+      </c>
+      <c r="B32">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>155</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>98</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3200</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>110</v>
+      </c>
+      <c r="K33">
+        <v>8</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3300</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>137</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3400</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>22</v>
+      </c>
+      <c r="I35">
+        <v>38</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3500</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>178</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>37</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3600</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>165</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3700</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>148</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3800</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3900</v>
+      </c>
+      <c r="B40">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>37</v>
+      </c>
+      <c r="F40">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>98</v>
+      </c>
+      <c r="F41">
+        <v>98</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>122</v>
+      </c>
+      <c r="J41">
+        <v>12</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4100</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4200</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>12</v>
+      </c>
+      <c r="M43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4300</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4400</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>137</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4500</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>38</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4600</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>22</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4700</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4800</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>37</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>12</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4900</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>98</v>
+      </c>
+      <c r="F50">
+        <v>107</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5000</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>28</v>
+      </c>
+      <c r="G51">
+        <v>47</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5100</v>
+      </c>
+      <c r="B52">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>28</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>47</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5200</v>
+      </c>
+      <c r="B53">
+        <v>88</v>
+      </c>
+      <c r="C53">
+        <v>37</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>137</v>
+      </c>
+      <c r="J53">
+        <v>362</v>
+      </c>
+      <c r="K53">
+        <v>28</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5300</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>83</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>40</v>
+      </c>
+      <c r="J54">
+        <v>40</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5400</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5500</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>119</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5600</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>42</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>107</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5700</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>37</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>22</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>28</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5800</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>79</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>88</v>
+      </c>
+      <c r="H59">
+        <v>62</v>
+      </c>
+      <c r="I59">
+        <v>22</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5900</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>142</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>38</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6000</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <v>12</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6100</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>6</v>
+      </c>
+      <c r="M62">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6200</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6300</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>79</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6400</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>61</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>142</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>52</v>
+      </c>
+      <c r="J65">
+        <v>137</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6500</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>197</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>110</v>
+      </c>
+      <c r="J66">
+        <v>38</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6600</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>24</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>149</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6700</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>107</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>30</v>
+      </c>
+      <c r="M68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6800</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>258</v>
+      </c>
+      <c r="D69">
+        <v>52</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>12</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6900</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>123</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>7000</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>22</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7100</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>137</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>12</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7200</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>378</v>
+      </c>
+      <c r="I73">
+        <v>12</v>
+      </c>
+      <c r="J73">
+        <v>362</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7300</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>33</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>40</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>40</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7400</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>28</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+      <c r="L75">
+        <v>6</v>
+      </c>
+      <c r="M75">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7500</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7600</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>52</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7700</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>22</v>
+      </c>
+      <c r="I78">
+        <v>110</v>
+      </c>
+      <c r="J78">
+        <v>22</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7800</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>79</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7900</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>148</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>8000</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>12</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>8100</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>8200</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>119</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>101</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>22</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8300</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>42</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>24</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>12</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8400</v>
+      </c>
+      <c r="B85">
+        <v>107</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>52</v>
+      </c>
+      <c r="K85">
+        <v>12</v>
+      </c>
+      <c r="L85">
+        <v>107</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8500</v>
+      </c>
+      <c r="B86">
+        <v>28</v>
+      </c>
+      <c r="C86">
+        <v>47</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>75</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>12</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>353</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>28</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8600</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>252</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>12</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>8700</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>28</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>52</v>
+      </c>
+      <c r="I88">
+        <v>12</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8800</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>22</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>144</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8900</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>28</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>9000</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>24</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>22</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>9100</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>52</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>79</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9200</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>123</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>148</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>9300</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>197</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>9400</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>107</v>
+      </c>
+      <c r="G95">
+        <v>24</v>
+      </c>
+      <c r="H95">
+        <v>22</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>9500</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>137</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>213</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>12</v>
+      </c>
+      <c r="J96">
+        <v>12</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>9600</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>38</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>24</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>9700</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>107</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>197</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>9800</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>37</v>
+      </c>
+      <c r="D99">
+        <v>16</v>
+      </c>
+      <c r="E99">
+        <v>28</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>30</v>
+      </c>
+      <c r="L99">
+        <v>6</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>9900</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>52</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10000</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>123</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/Avaliação dos resultados - T1.xlsx
+++ b/docs/Avaliação dos resultados - T1.xlsx
@@ -120,13 +120,13 @@
     <t>Erro 0.08  -   5 nós</t>
   </si>
   <si>
-    <t>3 partes</t>
+    <t>Passo</t>
   </si>
   <si>
-    <t>2 partes</t>
+    <t>2 partições</t>
   </si>
   <si>
-    <t>Passo</t>
+    <t>3 partições</t>
   </si>
 </sst>
 </file>
@@ -809,11 +809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132548480"/>
-        <c:axId val="132550016"/>
+        <c:axId val="99641984"/>
+        <c:axId val="99647872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132548480"/>
+        <c:axId val="99641984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132550016"/>
+        <c:crossAx val="99647872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -831,7 +831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132550016"/>
+        <c:axId val="99647872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132548480"/>
+        <c:crossAx val="99641984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1017,11 +1017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132562304"/>
-        <c:axId val="132572288"/>
+        <c:axId val="100405632"/>
+        <c:axId val="100407168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132562304"/>
+        <c:axId val="100405632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132572288"/>
+        <c:crossAx val="100407168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132572288"/>
+        <c:axId val="100407168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132562304"/>
+        <c:crossAx val="100405632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,11 +1239,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="133224704"/>
-        <c:axId val="133230592"/>
+        <c:axId val="84093952"/>
+        <c:axId val="100160256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133224704"/>
+        <c:axId val="84093952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1252,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133230592"/>
+        <c:crossAx val="100160256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1260,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133230592"/>
+        <c:axId val="100160256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -1290,21 +1290,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133224704"/>
+        <c:crossAx val="84093952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1349,7 +1347,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 partes</c:v>
+                  <c:v>2 partições</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1418,7 +1416,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3 partes</c:v>
+                  <c:v>3 partições</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1487,11 +1485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="56587392"/>
-        <c:axId val="56588928"/>
+        <c:axId val="100206464"/>
+        <c:axId val="100208000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56587392"/>
+        <c:axId val="100206464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1498,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56588928"/>
+        <c:crossAx val="100208000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1508,7 +1506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56588928"/>
+        <c:axId val="100208000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56587392"/>
+        <c:crossAx val="100206464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6787,7 +6785,7 @@
   <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6811,7 +6809,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -6977,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3">
         <f>SUM(B2:B101)</f>
